--- a/f_0117/employee.xlsx
+++ b/f_0117/employee.xlsx
@@ -19,7 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +597,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" s="2" t="n">
+        <v>45308</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,7 +650,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" s="2" t="n">
+        <v>45309</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -695,7 +703,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" s="2" t="n">
+        <v>45310</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -746,7 +756,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" s="2" t="n">
+        <v>45311</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -797,7 +809,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" s="2" t="n">
+        <v>45312</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -848,7 +862,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" s="2" t="n">
+        <v>45313</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -899,7 +915,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" s="2" t="n">
+        <v>45314</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -950,7 +968,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" s="2" t="n">
+        <v>45315</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1001,7 +1021,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" s="2" t="n">
+        <v>45316</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1052,7 +1074,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" s="2" t="n">
+        <v>45317</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1103,7 +1127,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" s="2" t="n">
+        <v>45318</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1154,7 +1180,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" s="2" t="n">
+        <v>45319</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1205,7 +1233,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" s="2" t="n">
+        <v>45320</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1256,7 +1286,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" s="2" t="n">
+        <v>45321</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1307,7 +1339,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" s="2" t="n">
+        <v>45322</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1358,7 +1392,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" s="2" t="n">
+        <v>45323</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1409,7 +1445,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" s="2" t="n">
+        <v>45324</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1460,7 +1498,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" s="2" t="n">
+        <v>45325</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1511,7 +1551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" s="2" t="n">
+        <v>45326</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1562,7 +1604,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" s="2" t="n">
+        <v>45327</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1613,7 +1657,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" s="2" t="n">
+        <v>45328</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1664,7 +1710,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" s="2" t="n">
+        <v>45329</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1715,7 +1763,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" s="2" t="n">
+        <v>45330</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1766,7 +1816,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" s="2" t="n">
+        <v>45331</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1817,7 +1869,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" s="2" t="n">
+        <v>45332</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2175,6 +2229,104 @@
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2289,8 +2441,12 @@
           <t>퇴사인원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -2327,18 +2483,42 @@
           <t>총계</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2453,8 +2633,12 @@
           <t>퇴사인원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -2475,7 +2659,9 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -2491,18 +2677,42 @@
           <t>총계</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2617,8 +2827,12 @@
           <t>퇴사인원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -2655,18 +2869,42 @@
           <t>총계</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/f_0117/employee.xlsx
+++ b/f_0117/employee.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" s="2" t="n">
+        <v>45308</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -598,7 +600,7 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +653,7 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="5">
@@ -704,7 +706,7 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="6">
@@ -757,7 +759,7 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45311</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="7">
@@ -810,7 +812,7 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="8">
@@ -863,7 +865,7 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="9">
@@ -916,7 +918,7 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +971,7 @@
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="11">
@@ -1022,7 +1024,7 @@
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="12">
@@ -1075,7 +1077,7 @@
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="13">
@@ -1128,7 +1130,7 @@
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45318</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="14">
@@ -1181,7 +1183,7 @@
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="15">
@@ -1234,7 +1236,7 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="16">
@@ -1287,7 +1289,7 @@
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45321</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="17">
@@ -1340,7 +1342,7 @@
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="18">
@@ -1393,7 +1395,7 @@
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45323</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="19">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="20">
@@ -1499,7 +1501,7 @@
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45325</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1554,7 @@
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="22">
@@ -1605,7 +1607,7 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="23">
@@ -1658,7 +1660,7 @@
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="24">
@@ -1711,7 +1713,7 @@
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="25">
@@ -1764,7 +1766,7 @@
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="26">
@@ -1817,7 +1819,7 @@
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45331</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="27">
@@ -1870,7 +1872,7 @@
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="28">
@@ -1922,7 +1924,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" s="2" t="n">
+        <v>45335</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1973,7 +1977,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" s="2" t="n">
+        <v>45336</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2024,7 +2030,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" s="2" t="n">
+        <v>45337</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,7 +2083,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" s="2" t="n">
+        <v>45338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2126,7 +2136,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" s="2" t="n">
+        <v>45339</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2327,6 +2339,300 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>새 직원</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>개발</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>중급</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>개발부</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>주임</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>서울시 어딘가</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2420,9 +2726,7 @@
           <t>재직인원</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2445,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -2467,7 +2771,9 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -2484,16 +2790,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="C5" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2612,9 +2918,7 @@
           <t>재직인원</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2660,7 +2964,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2678,7 +2982,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="C5" t="n">
         <v>-1</v>
@@ -2687,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2806,9 +3110,7 @@
           <t>재직인원</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2828,10 +3130,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -2870,10 +3172,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="C5" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
